--- a/Data Mining Project Calendar.xlsx
+++ b/Data Mining Project Calendar.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Notes:</t>
   </si>
@@ -82,6 +82,30 @@
   <si>
     <t>Brainstorming session 1-2 p.m</t>
   </si>
+  <si>
+    <t>Rough draft of proposal Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle </t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Other Colors as assigned:</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -184,6 +208,34 @@
     <font>
       <sz val="11"/>
       <color indexed="63"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,7 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -396,6 +448,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -731,10 +790,10 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,10 +802,11 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
     <col min="14" max="14" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <f ca="1">YEAR(TODAY())</f>
@@ -761,7 +821,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -790,8 +850,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>SUNDAY</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <f t="array" aca="1" ref="B3:H3" ca="1">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42793</v>
@@ -820,8 +883,11 @@
         <f ca="1"/>
         <v>42799</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -831,8 +897,11 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <f t="array" aca="1" ref="B5:H5" ca="1">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42800</v>
@@ -861,17 +930,25 @@
         <f ca="1"/>
         <v>42806</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f t="array" aca="1" ref="B7:H7" ca="1">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42807</v>
@@ -900,8 +977,11 @@
         <f ca="1"/>
         <v>42813</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -909,8 +989,11 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="array" aca="1" ref="B9:H9" ca="1">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42814</v>
@@ -940,7 +1023,7 @@
         <v>42820</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -949,7 +1032,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <f t="array" aca="1" ref="B11:H11" ca="1">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42821</v>
@@ -979,7 +1062,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -988,7 +1071,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="array" aca="1" ref="B13:C13" ca="1">Days+36+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42828</v>
@@ -1005,7 +1088,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="12"/>
